--- a/Баг репорты по заданию - Создаем отчеты о дефекте для регистрации.xlsx
+++ b/Баг репорты по заданию - Создаем отчеты о дефекте для регистрации.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaming PC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F72ED0-F1AD-4F90-AFD0-3CED19522BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BD5C72-09EC-4B6A-B6A8-D3C16A22AB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1695" yWindow="1365" windowWidth="24225" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Баг репорты - Project (Junior 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
   <si>
     <t>Issue Id</t>
   </si>
@@ -774,104 +774,6 @@
       </rPr>
       <t xml:space="preserve"> кнопка "Регистрация / Войти" заменяется на кнопку "Выйти".
  Qase.io defect: [После регистрации кнопка "Регистрация / Войти" не меняется на кнопку "Выйти"](https://app.qase.io/defect/G101/view/29)
- Found in test run: [Test run 2025/09/04](https://app.qase.io/run/G101/dashboard/4)</t>
-    </r>
-  </si>
-  <si>
-    <t>G11-99</t>
-  </si>
-  <si>
-    <t>Регистрация: неверное содержание ошибки при регистрации пользователя с невалидным логином (2 символа) и валидным паролем</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">**Environment:** 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Windows 11 24h2, Chrome v.139.0.7258.155
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> 
- ### Steps to reproduce</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">
- * *Step 1*
-  Action: Открыть страницу &lt;https://qa.demoshopping.ru/&gt;
- * *Step 2*
-  Action: Нажать на кнопку "Регистрация / Войти"
- * *Step 3*
-  Action: В поле "Логин" ввести невалидный логин
-  Input Data: Спец. символы (Кроме "_")
- * *Step 4*
-  Action: В поле "Пароль" ввести валидный пароль
-  Input Data: Не менее 8 символов, включая минимум одну букву (латиница) и одну цифру.
- * *Step 5*
-  Action: Нажать на кнопку "Зарегистрироваться"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> ### Actual result</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">
- Появляется сообщение: "Произошла ошибка при обработке запроса".
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> **Expected Result:**
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">
- Появляется сообщение: "Логин должен содержать от 3 до 15 символов и может включать буквы, цифры и символы: _".
- Qase.io defect: [Регистрация: неверное содержание ошибки при регистрации пользователя с невалидным логином (2 символа) и валидным паролем](https://app.qase.io/defect/G101/view/34)
  Found in test run: [Test run 2025/09/04](https://app.qase.io/run/G101/dashboard/4)</t>
     </r>
   </si>
@@ -1434,10 +1336,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K1010"/>
+  <dimension ref="A1:K1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1825,7 +1727,7 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="374.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="315" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>45</v>
       </c>
@@ -1860,7 +1762,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="250.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="282.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1873,7 +1775,7 @@
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" ht="315" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="241.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>48</v>
       </c>
@@ -1890,7 +1792,7 @@
         <v>15</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>17</v>
@@ -1908,7 +1810,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="282.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="408.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1921,53 +1823,11 @@
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" ht="241.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="408.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
+    <row r="20" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
     </row>
     <row r="22" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
@@ -4930,41 +4790,55 @@
     <row r="1008" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1008" s="1"/>
     </row>
-    <row r="1009" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1009" s="1"/>
-    </row>
-    <row r="1010" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1010" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="109">
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
+  <mergeCells count="98">
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
@@ -4989,64 +4863,33 @@
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
